--- a/backend/uploads/SE_Success_Criteria_Checklist_Eng_Bahasa.xlsx
+++ b/backend/uploads/SE_Success_Criteria_Checklist_Eng_Bahasa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>Area of Evaluation</t>
   </si>
@@ -170,6 +170,15 @@
     <t>Revisions are recorded, release process &amp; change control work correctly.</t>
   </si>
   <si>
+    <t>Simulation (Structural static)</t>
+  </si>
+  <si>
+    <t>Evaluate the built-in linear static stress simulation capabilities for part and assembly models. Test for mesh control, contact definition, load/constraint setup, and result interpretation.</t>
+  </si>
+  <si>
+    <t>Solver should generate reliable stress and displacement results. Assembly-level contact behavior and geometry updates should be stable.</t>
+  </si>
+  <si>
     <t>Area Evaluasi</t>
   </si>
   <si>
@@ -294,13 +303,22 @@
   </si>
   <si>
     <t>Revisi terekam, proses release &amp; kontrol perubahan berjalan baik</t>
+  </si>
+  <si>
+    <t>Simulasi (Statis Struktural)</t>
+  </si>
+  <si>
+    <t>Evaluasi kemampuan simulasi tegangan statis linier bawaan untuk model komponen dan perakitan. Uji kontrol mesh, definisi kontak, pengaturan beban/batasan, dan interpretasi hasil.</t>
+  </si>
+  <si>
+    <t>Solver harus menghasilkan hasil tegangan dan perpindahan yang dapat diandalkan. Perilaku kontak tingkat perakitan dan pembaruan geometri harus stabil.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -317,6 +335,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -347,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -366,6 +389,9 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -843,9 +869,16 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" ht="21.75" customHeight="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
@@ -1854,13 +1887,13 @@
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="35.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -1873,88 +1906,88 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>56</v>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>58</v>
+      <c r="B5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>60</v>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>62</v>
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>64</v>
+      <c r="B8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>66</v>
+      <c r="B9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>68</v>
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>70</v>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1963,34 +1996,34 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>72</v>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>74</v>
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1999,11 +2032,11 @@
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>79</v>
+      <c r="B15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2012,11 +2045,11 @@
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>81</v>
+      <c r="B16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2025,22 +2058,22 @@
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>83</v>
+      <c r="B17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>85</v>
+      <c r="B18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2049,22 +2082,22 @@
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>87</v>
+      <c r="B19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>89</v>
+      <c r="B20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2073,11 +2106,11 @@
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>91</v>
+      <c r="B21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2086,18 +2119,25 @@
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>93</v>
+      <c r="B22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" ht="21.75" customHeight="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
